--- a/Comments.xlsx
+++ b/Comments.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Comment_Analysis_Using_Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F1F0D3-88D5-409E-8648-2857CDD83A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="111">
   <si>
     <t>URL</t>
   </si>
@@ -28,13 +34,310 @@
     <t>COMMENTS</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=1Vj4gglxUH4</t>
+  </si>
+  <si>
+    <t>शराब के नशे में उत्पात मचा रहा था, UK Police ने काटा चालान || #UttarakhandPoliceShorts #shorts</t>
+  </si>
+  <si>
+    <t>3 weeks ago</t>
+  </si>
+  <si>
+    <t>Chaalan kaatne ke alava kya kia tumne ? Training me bas chalaan kaatna sikhate h tum farzi logo ko ?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HW2doTGNZAY</t>
+  </si>
+  <si>
+    <t>It is Our Dream To Make Uttarakhand Drug Free || DGP Uttarakhand Police</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>Sir ji Please Haldwani m Car mein Lal Neeli light aur modified Led Headlight  gadiyon ko sangyan m liya jaye</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JNj5DDfrl9Q</t>
+  </si>
+  <si>
+    <t>How to Report Cyber Crime Online || Uttarakhand Police #uttarakhandpoliceshorts #shorts</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UAFk_r_3gkY</t>
+  </si>
+  <si>
+    <t>केदारनाथ धाम में घोड़ा संचालक गिरफ्तार किये गये हैं। SP Rudraprayag</t>
+  </si>
+  <si>
+    <t>Always Uttarakhand Police did the commendable job
+Thank you all</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9p9ToP9GPiw</t>
+  </si>
+  <si>
+    <t>तीर्थ स्थलों एवं गंगा किनारे हुड़दंग किया तो होगी कार्यवाही | Operation Maryada | Uttarakhand Police</t>
+  </si>
+  <si>
+    <t>3 months ago</t>
+  </si>
+  <si>
+    <t>Fine Kareye in Jahilo per , Maa Ku God me sharab Pee rahe hai</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CO5UNXOomoI</t>
+  </si>
+  <si>
+    <t>Uttarakhand Police hai to sab hota hai || tenant verification</t>
+  </si>
+  <si>
+    <t>4 months ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir mere ko job ke naam par mere ko bulaya gaya ki kapda ki company hai 18k hajar manthly pements degi or mere se 3000 hajar fraud kiya  koi job nahi diya ane ke badh pata chala koi job nahi hai network marketing ke bare fasaya please  help me </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=djz7oBCNyzs</t>
+  </si>
+  <si>
+    <t>Safe Devbhoomi Uttarakhand || Women Safety|| Uttarakhand Police App</t>
+  </si>
+  <si>
+    <t>6 months ago</t>
+  </si>
+  <si>
+    <t>Ketan , you are good human , but I like the way you did !</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6LvSInz3JwA</t>
+  </si>
+  <si>
+    <t>Road Accident में घायल व्यक्ति की मदद करें | Uttarakhand Poilce के Good Samaritan List में आयें|</t>
+  </si>
+  <si>
+    <t>If anything will happens to @honeyboy @uttarakhandpoliceyt is responsible for this. Police cops should help this man.</t>
+  </si>
+  <si>
+    <t>What tha shit uk police is performing now ,
+Literally i m too much disagreed with uk polics with there sense of not helping others behavious u all team should be ashame of this 
+A youtuber name honey boy is seeking for ur help and u guys r just doing nothing even not taking a single action to help him !!!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=51ulX-s8eKM</t>
+  </si>
+  <si>
+    <t>Action on Modified Silencer || Uttarakhand Police</t>
+  </si>
+  <si>
+    <t>7 months ago</t>
+  </si>
+  <si>
+    <t>Honey boy case ka kya hua??</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pjUG51GrQ3M</t>
+  </si>
+  <si>
+    <t>उत्तराखण्ड पुलिस के जांबाजों के करतब ने किया मंत्रमुग्ध // Him Rakshak Dare Devils</t>
+  </si>
+  <si>
+    <t>1 year ago</t>
+  </si>
+  <si>
+    <t>Sir Please tell us about SI vacancy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eydmTnSQ0yE</t>
+  </si>
+  <si>
+    <t>जमीन से उठकर सर्वांग सर्वोत्तम तक पहुंचने वाली पुलिस उपाधीक्षक सुश्री रीना राठौर // Sword of Honour</t>
+  </si>
+  <si>
+    <t>2 years ago</t>
+  </si>
+  <si>
+    <t>Uttarakhand police ki bharti kab aayegi??</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5gn8_wW8LUM</t>
+  </si>
+  <si>
+    <t>दवाईयों की कालाबाजारी करने वालों पर होगी सख्त कार्यवाही // Uttarakhand Police</t>
+  </si>
+  <si>
+    <t>Sir ji khane ka saman ka b rate bahot badha diya gya h kripya is par bhi dhyan dijiye ki saman sahi rate per sale kare</t>
+  </si>
+  <si>
+    <t>Sir ji police costeble ki vigypti may m aayegi ya ni?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MqdR0UCbYdU</t>
+  </si>
+  <si>
+    <t>प्रदेश की युवाओं से अपील, उत्तराखण्ड पुलिस भर्ती संबंधी अफवाहों पर न दें ध्यान</t>
+  </si>
+  <si>
+    <t>हर हर महादेव 
+जय बाबा केदार 
+सर जी कृपया कुछ छूट अवश्य दे उत्तराखंड के युवाओं को...
+क्योंकि सर जी ये vacancy 8-9 सालों के बाद आ रही है...</t>
+  </si>
+  <si>
+    <t>7 years Ho Gaye lekin, jinka age nikal Gaya sir unke bare me bhi kuch sochiye ap sir apse request hai ki general category walo ke 27 age kr digye sir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 sal se constable ki bharti nhi aai h itne salo ke baad ab archne dur nhi ki h kya aani chaiye chahiye kuch nahi ho ise  mahine notification jari hona chaiye sr ji  hm vet krte krte thak gye h kya kre majbor lachar or hathash ho gye h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir dehradun walo baccho k liya bhi height kam honi chahiye hum bhi toh u.k mai paida hua hai toh hamari height kaise baad jaati sir jaise hill walo liya kuch height kam hai hai 162 hamara dun walo ko165 tk toh mauka milna chahiye </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pShVR5dyOLI</t>
+  </si>
+  <si>
+    <t>कोरोना काल में Uttarakhand Police ने उत्कृष्ट कार्य किया है।</t>
+  </si>
+  <si>
+    <t>3 years ago</t>
+  </si>
+  <si>
+    <t>You are great IPS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h1kwrcY6mvc</t>
+  </si>
+  <si>
+    <t>सोशल मीडिया पर धूम मचा रहा Uttarakhand Police के जवान का गाना</t>
+  </si>
+  <si>
+    <t>I feel same here. Me and all' who belongs to villages feel same in this Lock Down. 
+Such Gaon Jaise sookon khi or nhi hai. Ye baat ab pta chl gye.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xXfkJqs6ND4</t>
+  </si>
+  <si>
+    <t>Kashmiri student Sahil Altaf Beg says Thank You Uttarakhand Police</t>
+  </si>
+  <si>
+    <t>4 years ago</t>
+  </si>
+  <si>
+    <t>You can safely live in india</t>
+  </si>
+  <si>
+    <t>Nice we should stop calling them kashmiri.. they are Indians  and our brothers and sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_U29QkWGVm4</t>
+  </si>
+  <si>
+    <t>UTTARAKHAND POLICE // DEHRADUN MARATHON // HARISH KORANGA // MUKESH RAWAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">बहुत बहुत महान कार्य है ।।
+Great ।।
+आदरणीय माननीय महोदय  श्री अशोक कुमार ( ips) सर जी ने भी कई कई बार नशे के खिलाफ मुहिम की सुरुआत की है और आज पुरा भारत इस मुहिम से 78% तक जुड गया हैं आशा व निवेदन हैं की सभी जगह पर toll free number उप्लब्ध हो तो तो नशे की खिलाफ हम सब जीत सकते है क्युकी counselling is much better than awareness  against drugs .. </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eedsUni4wCo</t>
+  </si>
+  <si>
+    <t>UTTARAKHAND POLICE // DEHRADUN MARATHON // RAGHAV JUYAL</t>
+  </si>
+  <si>
+    <t>Bihar ka aa sakta hai sir candidate</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xtESt-J3e2s</t>
+  </si>
+  <si>
+    <t>Dehradun Marathon // Uttarakhand Police // Run Against Drugs // Run For Life</t>
+  </si>
+  <si>
+    <t>Full marathon video.?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ty4vhio1Zs4</t>
+  </si>
+  <si>
+    <t>PUKAAR // SONIA JOSHI // UTTARAKHAND POLICE</t>
+  </si>
+  <si>
+    <t>This song dedicated for those person, who don't love beby girl.
+Nice song</t>
+  </si>
+  <si>
+    <t>Beautiful song</t>
+  </si>
+  <si>
+    <t>Baby girl should be equally treated as boys. Now-a-days in each and every field girls are performing better than boys.
+Thanks to Uttarakhand Police for this beautiful video message.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Of57DU912ko</t>
+  </si>
+  <si>
+    <t>civil services (IAS/IPS) preparation by DIG Shri Kewal Khurana IPS</t>
+  </si>
+  <si>
+    <t>sir socal stades ka pepar kaise taiyar kre  plz sir btaye ......kha kis book se</t>
+  </si>
+  <si>
+    <t>sir essay ki preperation kaise shuru karu meri english weak hai</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nUlfHK48CTg</t>
+  </si>
+  <si>
+    <t>Uttarakhand Police Singer Constable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have listened many singers singing Rafi saheb out of which she are well known Bollywood singer like Sonu Nigam, but no one are as close as you are. 
+Unparallel,,, you are head and shoulders above,,,, keep it up bro </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-pIFXbtQdRI</t>
+  </si>
+  <si>
+    <t>IAS/IPS Preparation (Video 03)</t>
+  </si>
+  <si>
+    <t>5 years ago</t>
+  </si>
+  <si>
+    <t>namastey sir gs=4 ethics basic ke  bare me bataye</t>
+  </si>
+  <si>
+    <t>Hello sir 
+Sir standards books jo Apne btai h unhe kya NCERT ke sath padna h ya phle basic clear  krna jaruri h?</t>
+  </si>
+  <si>
+    <t>Essay' ke bare me v videos banaye please</t>
+  </si>
+  <si>
+    <t>Sir mains writing ke bare me kuch margdarshan karaiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear sir aap jab exam clear kiye thd tab kuch aur tha। sir but abhi is time jo papper hua hai wah total news pepper current event pe aadharit hai ।
+I humbl request for you ki ek naya video daale। apne blog me aur suggest kare ab jo main ka exam kaise clear aur kya kya read kare? </t>
+  </si>
+  <si>
+    <t>Aaj hj hme aapke bare me pta chla h</t>
+  </si>
+  <si>
+    <t>Sir 2020 me exam dena h to 
+Current kab se follow kre</t>
+  </si>
+  <si>
+    <t>aapke bare me dainik jagaran print hua h</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NE8ifdpTZ2g</t>
   </si>
   <si>
     <t>IAS/IPS Preparation (Video 02)</t>
-  </si>
-  <si>
-    <t>5 years ago</t>
   </si>
   <si>
     <t>सर मै आपसे एक सवाल पूछना चाहता हूँ,कि   क्या इस examकी तैयारी के लिए किसी संस्था की मार्गदर्शन की आवश्यकता है/नहीं?</t>
@@ -48,22 +351,35 @@
 Iam confused about study and books</t>
   </si>
   <si>
+    <t>Sir csat qualify krne k liye kis book ko follow Krna chahiye</t>
+  </si>
+  <si>
     <t>Hi sir tq sir hi hum jaise UPSC candidate k liye ap ne itna sub socha hy 
 Mera sawal hy k prilims paper 1 me mains exam k liye paper 1 me kitne marks nikalne chahiye</t>
   </si>
   <si>
-    <t>Sir csat qualify krne k liye kis book ko follow Krna chahiye</t>
-  </si>
-  <si>
     <t>Sr. Maja agya
 Q. ?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4rPI_AeNOrI</t>
+  </si>
+  <si>
+    <t>IAS/IPS preparation</t>
+  </si>
+  <si>
+    <t>Sir upsc ke exam k liye math kitna jaroori hai plse guide kare</t>
+  </si>
+  <si>
+    <t>केवल, क्या आप शिशु मंदिर में मेरे साथ पड़ते थे? 
+कमलेश कुमार शर्मा</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,13 +455,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +507,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -217,6 +541,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -251,9 +576,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,14 +752,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.08984375" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="92.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -461,84 +795,699 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{127401DC-34A5-489B-B985-DFF841220BD4}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{C005D02E-E776-4953-A817-16B2DFDCF603}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{05303124-C2FA-4469-93B8-D26B03B15C87}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{48071413-16DB-4FF9-AA74-11252B5C660D}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{A35CBC1B-D656-4970-A7BD-7FF7EBAFD5DC}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{F7894D1B-DABC-4C70-BAC9-60A3570F8481}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{5E231FC0-A040-44F3-AF92-21D47BA1D416}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{2AAD7B55-B3C8-4658-95C1-9D7F15C1D6EA}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{F6FC286F-47B5-4964-8444-1FF4417812CD}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{321AC729-9481-4E1A-9F04-64B93A407CD5}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{6473B6B0-B4B4-48D6-8EE1-C01EE1A002E4}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{70EE64D8-16D4-4D8C-8B92-80D23D6288B8}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{D43E4FE7-E316-4EB0-9187-DF5B9DDF9D40}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{0B446075-5D30-4DB7-93F5-89E66B11DDCA}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{84A72D57-DC47-497B-9001-FF0261EFC43A}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{F6204336-30E2-4EAE-B26D-1DB439D0D370}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{1CDE9882-190D-444E-826B-0D54E5F8A3C9}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{69FACCB1-1055-4721-B9DD-B975D9DF0CD6}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{C5EF721C-6839-4CEB-A593-B2EC2994DB66}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{C2BCDADF-91C1-4FE9-A68F-C06278E65C22}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{93D5C8BF-F723-417C-A1AC-C9454F032903}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{D77C398F-9DF3-436B-A1C7-8DE83084A336}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{9BADB277-D259-41F1-8126-D55711680052}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{08D83EBE-270D-4F1C-9320-2ED591361527}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{396FE5F6-F763-4A8E-A654-93D17A6CF7C9}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{DF6D2024-10B7-4D0D-9669-0A42B13D6846}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{6C229624-60DD-4E67-B2BF-503D13C1969D}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{8613E7E0-9415-4B1D-9809-FBF545E09069}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{62287A6E-9F55-4DC5-A1BC-11863336C04F}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{5A66E006-F52D-4586-87DC-E6D11BFB7C43}"/>
+    <hyperlink ref="A33" r:id="rId32" xr:uid="{28992627-32D4-447D-931C-133F5E262167}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{57C3143F-2CDE-485B-9E83-5D8EC02016FC}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{41C34977-852B-46EA-89EE-AA066ACDDA74}"/>
+    <hyperlink ref="A36" r:id="rId35" xr:uid="{2150EFD3-6402-4531-B9D0-2EAA960B4214}"/>
+    <hyperlink ref="A37" r:id="rId36" xr:uid="{42E05364-9BFD-4BDA-97E1-B07C2DF0D771}"/>
+    <hyperlink ref="A38" r:id="rId37" xr:uid="{B5BA64C1-7770-4322-991C-F43A257759D2}"/>
+    <hyperlink ref="A39" r:id="rId38" xr:uid="{63292593-BFEA-4E68-BE1F-892CEC799E17}"/>
+    <hyperlink ref="A40" r:id="rId39" xr:uid="{D0C1C546-DFFD-4E47-BB7E-A899B5004A81}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{CEB18269-32B9-41F1-A7D3-133C29732A6A}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{01321398-7BAC-442A-99AD-187D2E575238}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{507C9543-FD4F-4FE9-88FD-192FB43DCD78}"/>
+    <hyperlink ref="A44" r:id="rId43" xr:uid="{0C4B8D0A-CC17-4DBB-880A-C542ED1F2B29}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{0C4DA217-3E1F-4065-A0BA-3D909DC6B421}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{B66EE931-EBBB-416A-9519-566CF29317B6}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{0653F2E5-3E58-4226-8DC1-56968ADD7249}"/>
+    <hyperlink ref="A48" r:id="rId47" xr:uid="{3BCE0699-78C8-4F58-A52B-72E0E56071D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
